--- a/离线语言_协议/词表协议.xlsx
+++ b/离线语言_协议/词表协议.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13685\Documents\工作目录\麒盛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\vscode\git\Ergo_Dock\离线语言_协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE01E19B-09D4-4AD9-BE64-10261273A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Hello Ergo</t>
   </si>
@@ -51,9 +50,6 @@
     <t>A5 FA 00 81 04 00 24 FB</t>
   </si>
   <si>
-    <t>Zero G</t>
-  </si>
-  <si>
     <t>A5 FA 00 81 05 00 25 FB</t>
   </si>
   <si>
@@ -99,21 +95,12 @@
     <t>A5 FA 00 81 0C 00 2C FB</t>
   </si>
   <si>
-    <t>Massage Low</t>
-  </si>
-  <si>
     <t>A5 FA 00 81 0D 00 2D FB</t>
   </si>
   <si>
-    <t>Massage Medium</t>
-  </si>
-  <si>
     <t>A5 FA 00 81 0E 00 2E FB</t>
   </si>
   <si>
-    <t>Massage High</t>
-  </si>
-  <si>
     <t>A5 FA 00 81 0F 00 2F FB</t>
   </si>
   <si>
@@ -132,26 +119,91 @@
     <t>LIGHT ON</t>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOD NIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A5 FA 00 81 12 00 32 FB</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 33 FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero G/ZERO-GRAVITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTI-SNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 34 FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAISE LUMBAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 35 FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWER LUMBAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAISE TILT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWER TILT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 36 FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 37 FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massage On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massage UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massage Dwon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 FA 00 81 12 00 38 FB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +222,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -292,9 +359,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -307,9 +372,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -322,16 +385,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -340,11 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,54 +692,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -682,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -693,162 +761,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
+      <c r="C20" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>